--- a/notasED/CalificacionesCoda2demayo.xlsx
+++ b/notasED/CalificacionesCoda2demayo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Drive\Konrad Lorenz\Asignaturas\2020-I\Estructuras de Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codes\dataStructures\notasED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299882DE-1C83-40E4-9BD4-91E982EA6898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED21642-484A-4C16-8A87-B5283052BB23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="18">
   <si>
     <t>-</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Stack</t>
   </si>
   <si>
-    <t>Puntos Posibles</t>
+    <t>Puntos posibles</t>
   </si>
   <si>
     <t>Foro Pilas</t>
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -128,6 +128,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -184,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,6 +227,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,15 +532,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -640,7 +646,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="10">
-        <f>SUM(B2:O2)</f>
+        <f t="shared" ref="P2:P26" si="0">SUM(B2:O2)</f>
         <v>3</v>
       </c>
     </row>
@@ -691,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="10">
-        <f>SUM(B3:O3)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
@@ -738,7 +744,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="10">
-        <f>SUM(B4:O4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -779,7 +785,9 @@
       <c r="L5" s="3">
         <v>15</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>4</v>
+      </c>
       <c r="N5" s="7">
         <v>3</v>
       </c>
@@ -787,8 +795,8 @@
         <v>3</v>
       </c>
       <c r="P5" s="10">
-        <f>SUM(B5:O5)</f>
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -836,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="10">
-        <f>SUM(B6:O6)</f>
+        <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
     </row>
@@ -887,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="10">
-        <f>SUM(B7:O7)</f>
+        <f t="shared" si="0"/>
         <v>50.9</v>
       </c>
     </row>
@@ -932,7 +940,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="10">
-        <f>SUM(B8:O8)</f>
+        <f t="shared" si="0"/>
         <v>28.4</v>
       </c>
     </row>
@@ -981,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="10">
-        <f>SUM(B9:O9)</f>
+        <f t="shared" si="0"/>
         <v>24.3</v>
       </c>
     </row>
@@ -1028,7 +1036,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="10">
-        <f>SUM(B10:O10)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
@@ -1077,7 +1085,7 @@
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="10">
-        <f>SUM(B11:O11)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -1126,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="10">
-        <f>SUM(B12:O12)</f>
+        <f t="shared" si="0"/>
         <v>46.4</v>
       </c>
     </row>
@@ -1158,8 +1166,8 @@
       <c r="I13" s="3">
         <v>5</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>0</v>
+      <c r="J13" s="7">
+        <v>5</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>0</v>
@@ -1175,8 +1183,8 @@
         <v>3</v>
       </c>
       <c r="P13" s="10">
-        <f>SUM(B13:O13)</f>
-        <v>28.4</v>
+        <f t="shared" si="0"/>
+        <v>33.4</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1226,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="10">
-        <f>SUM(B14:O14)</f>
+        <f t="shared" si="0"/>
         <v>48.9</v>
       </c>
     </row>
@@ -1271,7 +1279,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="10">
-        <f>SUM(B15:O15)</f>
+        <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
     </row>
@@ -1322,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="10">
-        <f>SUM(B16:O16)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
@@ -1342,8 +1350,8 @@
       <c r="E17" s="3">
         <v>5</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>0</v>
+      <c r="F17" s="3">
+        <v>5</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>0</v>
@@ -1371,8 +1379,8 @@
         <v>3</v>
       </c>
       <c r="P17" s="10">
-        <f>SUM(B17:O17)</f>
-        <v>45.6</v>
+        <f t="shared" si="0"/>
+        <v>50.6</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1418,7 +1426,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="10">
-        <f>SUM(B18:O18)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -1465,7 +1473,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="10">
-        <f>SUM(B19:O19)</f>
+        <f t="shared" si="0"/>
         <v>31.4</v>
       </c>
     </row>
@@ -1510,7 +1518,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="10">
-        <f>SUM(B20:O20)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -1555,7 +1563,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="10">
-        <f>SUM(B21:O21)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
@@ -1604,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="P22" s="10">
-        <f>SUM(B22:O22)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
@@ -1653,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="P23" s="10">
-        <f>SUM(B23:O23)</f>
+        <f t="shared" si="0"/>
         <v>31.6</v>
       </c>
     </row>
@@ -1695,13 +1703,15 @@
         <v>15</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="7"/>
+      <c r="N24" s="7">
+        <v>3</v>
+      </c>
       <c r="O24" s="7">
         <v>3</v>
       </c>
       <c r="P24" s="10">
-        <f>SUM(B24:O24)</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -1749,14 +1759,11 @@
         <v>3</v>
       </c>
       <c r="P25" s="10">
-        <f>SUM(B25:O25)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="B26" s="4">
         <v>5</v>
       </c>
@@ -1798,9 +1805,12 @@
         <v>3</v>
       </c>
       <c r="P26" s="10">
-        <f>SUM(B26:O26)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1814,7 +1824,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1886,8 +1896,8 @@
       <c r="A2" s="12">
         <v>614182008</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
+      <c r="B2" s="3">
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -1929,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="P2" s="5">
-        <f>SUM(B2:O2)</f>
-        <v>20.7</v>
+        <f t="shared" ref="P2:P14" si="0">SUM(B2:O2)</f>
+        <v>25.7</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>506182053</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
+      <c r="B3" s="3">
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
@@ -1980,8 +1990,8 @@
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <f>SUM(B3:O3)</f>
-        <v>28.7</v>
+        <f t="shared" si="0"/>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -2031,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <f>SUM(B4:O4)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -2051,8 +2061,8 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
+      <c r="F5" s="7">
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>0</v>
@@ -2082,8 +2092,8 @@
         <v>0</v>
       </c>
       <c r="P5" s="5">
-        <f>SUM(B5:O5)</f>
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -2133,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5">
-        <f>SUM(B6:O6)</f>
+        <f t="shared" si="0"/>
         <v>26.4</v>
       </c>
     </row>
@@ -2184,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5">
-        <f>SUM(B7:O7)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2204,8 +2214,8 @@
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>0</v>
+      <c r="F8" s="7">
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>0</v>
@@ -2235,8 +2245,8 @@
         <v>0</v>
       </c>
       <c r="P8" s="5">
-        <f>SUM(B8:O8)</f>
-        <v>29.9</v>
+        <f t="shared" si="0"/>
+        <v>34.9</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -2286,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="5">
-        <f>SUM(B9:O9)</f>
+        <f t="shared" si="0"/>
         <v>23.9</v>
       </c>
     </row>
@@ -2337,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <f>SUM(B10:O10)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2388,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="5">
-        <f>SUM(B11:O11)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -2439,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="5">
-        <f>SUM(B12:O12)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
@@ -2481,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="10">
-        <v>0</v>
+        <v>12.32</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
@@ -2490,8 +2500,8 @@
         <v>0</v>
       </c>
       <c r="P13" s="5">
-        <f>SUM(B13:O13)</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>37.32</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2541,12 +2551,13 @@
         <v>3</v>
       </c>
       <c r="P14" s="5">
-        <f>SUM(B14:O14)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>